--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Downloads/Investigation_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B256EB-B352-1244-9567-7D703BF3171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728C3F2-2DB6-9F46-BB64-ACF0E282D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>IP address</t>
   </si>
@@ -128,6 +128,209 @@
   </si>
   <si>
     <t>Please upload your findings to this table. There is an example row (yellow background). Use different background colour please.</t>
+  </si>
+  <si>
+    <t>195.231.166.72</t>
+  </si>
+  <si>
+    <t>195.231.128.0/17</t>
+  </si>
+  <si>
+    <t>194.28.252.65</t>
+  </si>
+  <si>
+    <t>185.129.62.63</t>
+  </si>
+  <si>
+    <t>185.129.62.0/23</t>
+  </si>
+  <si>
+    <t>185.129.62.62</t>
+  </si>
+  <si>
+    <t>212.98.122.91</t>
+  </si>
+  <si>
+    <t>212.98.64.0/18</t>
+  </si>
+  <si>
+    <t>62.107.156.12</t>
+  </si>
+  <si>
+    <t>62.107.0.0/16</t>
+  </si>
+  <si>
+    <t>5.206.194.9</t>
+  </si>
+  <si>
+    <t>5.206.192.0/21</t>
+  </si>
+  <si>
+    <t>84.238.23.220</t>
+  </si>
+  <si>
+    <t>84.238.0.0/17</t>
+  </si>
+  <si>
+    <t>84.238.43.174</t>
+  </si>
+  <si>
+    <t>212.242.70.131</t>
+  </si>
+  <si>
+    <t>217.198.208.0/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 194.28.252.0/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Styrelsen for it og laering</t>
+  </si>
+  <si>
+    <t>UPC Schweiz, 
+Fagbevaegelsens Hovedorganisation</t>
+  </si>
+  <si>
+    <t>Zencurity ApS</t>
+  </si>
+  <si>
+    <t>Cust GC Net</t>
+  </si>
+  <si>
+    <t>Norlys Digital A/S</t>
+  </si>
+  <si>
+    <t>BOLIGNET-AARHUS F.M.B.A.</t>
+  </si>
+  <si>
+    <t>Styrelsen for it og laering</t>
+  </si>
+  <si>
+    <t>Fagbevaegelsens Hovedorganisation</t>
+  </si>
+  <si>
+    <t>GlobalConnect A/S</t>
+  </si>
+  <si>
+    <t>Telia Stofa A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Syd Energi Bredbaand A/S</t>
+  </si>
+  <si>
+    <t>s5h.net</t>
+  </si>
+  <si>
+    <t>Abusix Mail Intelligence Blacklist, DAN TOR, DAN TOREXIT, IMP SPAM, RATS Spam, s5h.net, SPAMCOP, Spamhaus ZEN, SWINOG</t>
+  </si>
+  <si>
+    <t>Abusix Mail Intelligence Blacklist, DAN TOR, DAN TOREXIT, RATS Spam, s5h.net, SPAMCOP, Spamhaus ZEN, SWINOG, SEM BLACK, TRUNCATE, FMB BL, Efnet BL</t>
+  </si>
+  <si>
+    <t>Sorbs, Barracuda, Spamhaus, MailSpike, FMB BL , Hostkarma</t>
+  </si>
+  <si>
+    <t>s5h.net, SORBS DUHL, Spamhaus ZEN</t>
+  </si>
+  <si>
+    <t>Abusix Mail Intelligence Blacklist, Anonmails DNSBL, BACKSCATTERER, BLOCKLIST.DE, DRONE BL, INTERSERVER, MAILSPIKE BL, MAILSPIKE Z, RATS Dyna, s5h.net, SPAMCOP, Spamhaus ZEN, SWINOG, TRUNCATE, UCEPROTECTL1, UCEPROTECTL2</t>
+  </si>
+  <si>
+    <t>UCEPROTECTL3, UCEPROTECTL2, Spamhaus ZEN, SORBS SPAM, s5h.net, RATS Dyna, DRONE BL, BARRACUDA, Anonmails DNSBL</t>
+  </si>
+  <si>
+    <t>Arhus</t>
+  </si>
+  <si>
+    <t>Sønderborg, Vordingborg</t>
+  </si>
+  <si>
+    <t>Sønderborg, Rask Molle</t>
+  </si>
+  <si>
+    <t>Aarhus</t>
+  </si>
+  <si>
+    <t>AArhus</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>TOR: TOR-Contact: Henrik Kramselund TOR-Details: N:kramse02/P:9001/F:EFGHRSDV, Data Center/Web Hosting/Transit</t>
+  </si>
+  <si>
+    <t>TOR: TOR-Contact: Henrik Kramselund TOR-Details: N:kramse01/P:9001/F:EFGHRSDV,</t>
+  </si>
+  <si>
+    <t>stil.dk</t>
+  </si>
+  <si>
+    <t>ftp.catpipe.net, proxy.catpipe.net, mirrors.catpipe.net, chef.catpipe.net, ftf.net, catpipe.net</t>
+  </si>
+  <si>
+    <t>tor02.zencurity.com, tor02.zencurity.dk, belikebill.no-ip.biz, belikebill.no-ip.biz, antvirus.ddns.com.br, ufciricto.kvrddns.com, romanep2612.dyn-vpn.de, seed.nu.crypto-daio.co.uk</t>
+  </si>
+  <si>
+    <t>tor01.zencurity.com, block2.mmms.eu, spocke.direct.quickconnect.to, ping-ip.hldns.ru, seed.nu.crypto-daio.co.uk, seed.bc.crypto-daio.co.uk, ticwcisalo.kvrddns.com, 
+beferosun.kvrddns.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e6b9c0c.rev.stofanet.dk, </t>
+  </si>
+  <si>
+    <t>5cec209.rev.sefiber.dk</t>
+  </si>
+  <si>
+    <t>84-238-23-220.ptr.bnaa.dk</t>
+  </si>
+  <si>
+    <t>84-238-43-174.ptr.bnaa.dk</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>file referring: https://www.virustotal.com/gui/file/b836d918e9dade4a8176484e23b6063b3a04faa24ef9a6bcd3129c31a101394c</t>
+  </si>
+  <si>
+    <t>crawler, ssh bruteforce, exploit attempt, https://viz.greynoise.io/ip/185.129.62.63, https://www.virustotal.com/gui/ip-address/185.129.62.63/relations, https://www.abuseipdb.com/check/185.129.62.63, https://otx.alienvault.com/indicator/ip/185.129.62.63</t>
+  </si>
+  <si>
+    <t>crawler, ssh bruteforce, exploit attempt, https://viz.greynoise.io/ip/185.129.62.62, https://www.virustotal.com/gui/ip-address/185.129.62.62/relations, https://www.abuseipdb.com/check/185.129.62.62, https://otx.alienvault.com/indicator/ip/185.129.62.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh bruteforce, ssh worm, IoT bruteforce, BOT, https://viz.greynoise.io/ip/212.98.122.91, https://www.abuseipdb.com/check/212.98.122.91, </t>
+  </si>
+  <si>
+    <t>ssh bruteforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh bruteforce, ssh worm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh, </t>
+  </si>
+  <si>
+    <t>9001, 9030, 2200, https://search.censys.io/hosts/185.129.62.63, https://www.shodan.io/host/185.129.62.63</t>
+  </si>
+  <si>
+    <t>123, 9001, 2200, 9030</t>
+  </si>
+  <si>
+    <t>22, 80, 123, https://www.shodan.io/host/212.98.122.91, https://search.censys.io/hosts/212.98.122.91</t>
+  </si>
+  <si>
+    <t>161, https://www.shodan.io/host/62.107.156.12#161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443, https://www.shodan.io/host/5.206.194.9, https://search.censys.io/hosts/5.206.194.9/data/table#500-UDP-IKE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22, 8082, https://search.censys.io/hosts/84.238.23.220, https://www.shodan.io/host/84.238.23.220, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22, SSH-2.0-dropbear, </t>
   </si>
 </sst>
 </file>
@@ -137,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,6 +365,54 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,10 +468,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -228,8 +480,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,23 +711,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:R6"/>
+  <dimension ref="A3:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="207.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="200.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="93" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="139.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
     <col min="14" max="14" width="20.5" customWidth="1"/>
@@ -622,6 +889,265 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:P4"/>

--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728C3F2-2DB6-9F46-BB64-ACF0E282D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22D333-DF15-844E-9A73-3845A35514E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
   <si>
     <t>IP address</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>84.238.43.174</t>
-  </si>
-  <si>
-    <t>212.242.70.131</t>
-  </si>
-  <si>
-    <t>217.198.208.0/20</t>
   </si>
   <si>
     <t xml:space="preserve"> 194.28.252.0/14</t>
@@ -221,12 +215,6 @@
     <t>s5h.net</t>
   </si>
   <si>
-    <t>Abusix Mail Intelligence Blacklist, DAN TOR, DAN TOREXIT, IMP SPAM, RATS Spam, s5h.net, SPAMCOP, Spamhaus ZEN, SWINOG</t>
-  </si>
-  <si>
-    <t>Abusix Mail Intelligence Blacklist, DAN TOR, DAN TOREXIT, RATS Spam, s5h.net, SPAMCOP, Spamhaus ZEN, SWINOG, SEM BLACK, TRUNCATE, FMB BL, Efnet BL</t>
-  </si>
-  <si>
     <t>Sorbs, Barracuda, Spamhaus, MailSpike, FMB BL , Hostkarma</t>
   </si>
   <si>
@@ -254,28 +242,12 @@
     <t>AArhus</t>
   </si>
   <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>TOR: TOR-Contact: Henrik Kramselund TOR-Details: N:kramse02/P:9001/F:EFGHRSDV, Data Center/Web Hosting/Transit</t>
-  </si>
-  <si>
-    <t>TOR: TOR-Contact: Henrik Kramselund TOR-Details: N:kramse01/P:9001/F:EFGHRSDV,</t>
-  </si>
-  <si>
     <t>stil.dk</t>
   </si>
   <si>
     <t>ftp.catpipe.net, proxy.catpipe.net, mirrors.catpipe.net, chef.catpipe.net, ftf.net, catpipe.net</t>
   </si>
   <si>
-    <t>tor02.zencurity.com, tor02.zencurity.dk, belikebill.no-ip.biz, belikebill.no-ip.biz, antvirus.ddns.com.br, ufciricto.kvrddns.com, romanep2612.dyn-vpn.de, seed.nu.crypto-daio.co.uk</t>
-  </si>
-  <si>
-    <t>tor01.zencurity.com, block2.mmms.eu, spocke.direct.quickconnect.to, ping-ip.hldns.ru, seed.nu.crypto-daio.co.uk, seed.bc.crypto-daio.co.uk, ticwcisalo.kvrddns.com, 
-beferosun.kvrddns.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">3e6b9c0c.rev.stofanet.dk, </t>
   </si>
   <si>
@@ -291,18 +263,6 @@
     <t>spam</t>
   </si>
   <si>
-    <t>file referring: https://www.virustotal.com/gui/file/b836d918e9dade4a8176484e23b6063b3a04faa24ef9a6bcd3129c31a101394c</t>
-  </si>
-  <si>
-    <t>crawler, ssh bruteforce, exploit attempt, https://viz.greynoise.io/ip/185.129.62.63, https://www.virustotal.com/gui/ip-address/185.129.62.63/relations, https://www.abuseipdb.com/check/185.129.62.63, https://otx.alienvault.com/indicator/ip/185.129.62.63</t>
-  </si>
-  <si>
-    <t>crawler, ssh bruteforce, exploit attempt, https://viz.greynoise.io/ip/185.129.62.62, https://www.virustotal.com/gui/ip-address/185.129.62.62/relations, https://www.abuseipdb.com/check/185.129.62.62, https://otx.alienvault.com/indicator/ip/185.129.62.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssh bruteforce, ssh worm, IoT bruteforce, BOT, https://viz.greynoise.io/ip/212.98.122.91, https://www.abuseipdb.com/check/212.98.122.91, </t>
-  </si>
-  <si>
     <t>ssh bruteforce</t>
   </si>
   <si>
@@ -312,15 +272,6 @@
     <t xml:space="preserve">ssh, </t>
   </si>
   <si>
-    <t>9001, 9030, 2200, https://search.censys.io/hosts/185.129.62.63, https://www.shodan.io/host/185.129.62.63</t>
-  </si>
-  <si>
-    <t>123, 9001, 2200, 9030</t>
-  </si>
-  <si>
-    <t>22, 80, 123, https://www.shodan.io/host/212.98.122.91, https://search.censys.io/hosts/212.98.122.91</t>
-  </si>
-  <si>
     <t>161, https://www.shodan.io/host/62.107.156.12#161</t>
   </si>
   <si>
@@ -331,6 +282,240 @@
   </si>
   <si>
     <t xml:space="preserve">22, SSH-2.0-dropbear, </t>
+  </si>
+  <si>
+    <t>Government, Datacenter</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>virustotal: 0, abuseipdb: 0%</t>
+  </si>
+  <si>
+    <t>1 file: trojan.crack/utorrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh bruteforce, ssh worm, IoT bruteforce, BOT, </t>
+  </si>
+  <si>
+    <t>Data Center/Web Hosting/Transit</t>
+  </si>
+  <si>
+    <t>22, 80, 123</t>
+  </si>
+  <si>
+    <t>virustotal: -13, abuseipdb: 100%</t>
+  </si>
+  <si>
+    <t>Fixed Line ISP</t>
+  </si>
+  <si>
+    <t>virustotal: , abuseipdb: 100%</t>
+  </si>
+  <si>
+    <t>185.129.61.10</t>
+  </si>
+  <si>
+    <t>185.129.61.9</t>
+  </si>
+  <si>
+    <t>185.129.61.1</t>
+  </si>
+  <si>
+    <t>185.129.61.5</t>
+  </si>
+  <si>
+    <t>185.129.61.7</t>
+  </si>
+  <si>
+    <t>185.129.61.2</t>
+  </si>
+  <si>
+    <t>185.129.61.4</t>
+  </si>
+  <si>
+    <t>185.129.61.6</t>
+  </si>
+  <si>
+    <t>Data Center/Web Hosting/Transit, TOR</t>
+  </si>
+  <si>
+    <t>SWINOG, Spamhaus ZEN, SPAMCOP, s5h.net, RATS Spam, DAN TOREXIT, DAN TOR, Abusix Mail Intelligence Blacklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tor02.zencurity.com, </t>
+  </si>
+  <si>
+    <t>91 files: trojan</t>
+  </si>
+  <si>
+    <t>36 files: trojan</t>
+  </si>
+  <si>
+    <t>&gt;1800 files: trojan</t>
+  </si>
+  <si>
+    <t>SWINOG, Spamhaus ZEN, SPAMCOP, SEM BLACK, s5h.net, RATS Spam, DAN TOREXIT, DAN TOR, Abusix Mail Intelligence Blacklist</t>
+  </si>
+  <si>
+    <t>123, 9001, 9030</t>
+  </si>
+  <si>
+    <t>TOR, web crawler, TLS/SSL crawler, SSH bruteforce, PHPMYADMIN worm, carries http referer</t>
+  </si>
+  <si>
+    <t>tor01.zencurity.com</t>
+  </si>
+  <si>
+    <t>TOR exit nodes, the most reported ones according to abuseIPDB</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>ASN</t>
+  </si>
+  <si>
+    <t>Malicious IPs</t>
+  </si>
+  <si>
+    <t>130.225.0.0/16</t>
+  </si>
+  <si>
+    <t>193.3.192.0/19</t>
+  </si>
+  <si>
+    <t>193.163.80.0/22</t>
+  </si>
+  <si>
+    <t>192.66.104.0/21</t>
+  </si>
+  <si>
+    <t>193.162.176.0/20</t>
+  </si>
+  <si>
+    <t>Danmarks Tekniske Universitet</t>
+  </si>
+  <si>
+    <t>AS1835</t>
+  </si>
+  <si>
+    <t>130.225.165.50</t>
+  </si>
+  <si>
+    <t>University/College/School</t>
+  </si>
+  <si>
+    <t>test.oek.dk, uni-noc.dk, thom1730rbs43ntc.asuscomm.com</t>
+  </si>
+  <si>
+    <t>BARRACUDA</t>
+  </si>
+  <si>
+    <t>9030, TOR http, 2200: SSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16030 http, </t>
+  </si>
+  <si>
+    <t>virustotal: -46, abuseipdb: 100%</t>
+  </si>
+  <si>
+    <t>virustotal: 0, abuseipdb: 100%</t>
+  </si>
+  <si>
+    <t>virustotal: -3, abuseipdb: 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh bruteforce, TLS/SSL crawler, web crawler, carries http referer, TOR, DDoS, </t>
+  </si>
+  <si>
+    <t>virustotal: -4, abuseipdb: 100%</t>
+  </si>
+  <si>
+    <t>K-Net Forening</t>
+  </si>
+  <si>
+    <t>Trafikstyrelsen</t>
+  </si>
+  <si>
+    <t>Esbjerg Kommune</t>
+  </si>
+  <si>
+    <t>Styrelsen for Arbejdsmarked og Rekruttering</t>
+  </si>
+  <si>
+    <t>193.162.120.0/21</t>
+  </si>
+  <si>
+    <t>193.162.168.0/21</t>
+  </si>
+  <si>
+    <t>192.66.100.0/22</t>
+  </si>
+  <si>
+    <t>192.66.112.0/22</t>
+  </si>
+  <si>
+    <t>130.225.244.90</t>
+  </si>
+  <si>
+    <t>130.225.39.160</t>
+  </si>
+  <si>
+    <t>130.225.165.50, 130.225.244.90, 130.225.39.160</t>
+  </si>
+  <si>
+    <t>130.226.0.0/16</t>
+  </si>
+  <si>
+    <t>130.226.169.137</t>
+  </si>
+  <si>
+    <t>AS 1835</t>
+  </si>
+  <si>
+    <t>192.38.10.202</t>
+  </si>
+  <si>
+    <t>192.38.0.0/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copenhagen, Aalborg, </t>
+  </si>
+  <si>
+    <t>DAN TOR, s5h.net</t>
+  </si>
+  <si>
+    <t>dotsrc.org, uni-noc.dk, tor-relay.dotsrc.org</t>
+  </si>
+  <si>
+    <t>80: http, 161:SNMP, 443:https, 9001:https, 9030:http</t>
+  </si>
+  <si>
+    <t>682 files: trojan, ransom</t>
+  </si>
+  <si>
+    <t>22: SSH</t>
+  </si>
+  <si>
+    <t>au.dk, uni-noc.dk</t>
+  </si>
+  <si>
+    <t>DRONE BL</t>
+  </si>
+  <si>
+    <t>uni-noc.dk</t>
+  </si>
+  <si>
+    <t>9 files: trojan</t>
+  </si>
+  <si>
+    <t>Spamhaus ZEN, SORBS WEB, SORBS SPAM, BARRACUDA</t>
   </si>
 </sst>
 </file>
@@ -340,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -377,25 +562,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -404,18 +570,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="13"/>
+      <color rgb="FF20242C"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF212529"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Questrial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -470,28 +664,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -711,71 +916,71 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:R16"/>
+  <dimension ref="A3:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="207.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="200.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="222" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="208.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="93" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="139.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="49" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="17" max="17" width="65.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -889,269 +1094,753 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="I8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="C22" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>100</v>
       </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="14" t="s">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="K14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>102</v>
       </c>
-      <c r="K15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:P4"/>
+    <mergeCell ref="C22:C29"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" display="https://apps.db.ripe.net/db-web-ui/lookup?source=ripe&amp;key=192.38.0.0%2F17AS1835&amp;type=route" xr:uid="{71F26DE2-A142-3646-A73E-E5502480F7EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D32" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22D333-DF15-844E-9A73-3845A35514E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB24F8-3E2A-0C45-9EFE-58436B759833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="172">
   <si>
     <t>IP address</t>
   </si>
@@ -272,15 +272,6 @@
     <t xml:space="preserve">ssh, </t>
   </si>
   <si>
-    <t>161, https://www.shodan.io/host/62.107.156.12#161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">443, https://www.shodan.io/host/5.206.194.9, https://search.censys.io/hosts/5.206.194.9/data/table#500-UDP-IKE, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22, 8082, https://search.censys.io/hosts/84.238.23.220, https://www.shodan.io/host/84.238.23.220, </t>
-  </si>
-  <si>
     <t xml:space="preserve">22, SSH-2.0-dropbear, </t>
   </si>
   <si>
@@ -302,9 +293,6 @@
     <t>Data Center/Web Hosting/Transit</t>
   </si>
   <si>
-    <t>22, 80, 123</t>
-  </si>
-  <si>
     <t>virustotal: -13, abuseipdb: 100%</t>
   </si>
   <si>
@@ -359,18 +347,12 @@
     <t>SWINOG, Spamhaus ZEN, SPAMCOP, SEM BLACK, s5h.net, RATS Spam, DAN TOREXIT, DAN TOR, Abusix Mail Intelligence Blacklist</t>
   </si>
   <si>
-    <t>123, 9001, 9030</t>
-  </si>
-  <si>
     <t>TOR, web crawler, TLS/SSL crawler, SSH bruteforce, PHPMYADMIN worm, carries http referer</t>
   </si>
   <si>
     <t>tor01.zencurity.com</t>
   </si>
   <si>
-    <t>TOR exit nodes, the most reported ones according to abuseIPDB</t>
-  </si>
-  <si>
     <t>Network</t>
   </si>
   <si>
@@ -434,9 +416,6 @@
     <t>virustotal: -4, abuseipdb: 100%</t>
   </si>
   <si>
-    <t>K-Net Forening</t>
-  </si>
-  <si>
     <t>Trafikstyrelsen</t>
   </si>
   <si>
@@ -516,6 +495,48 @@
   </si>
   <si>
     <t>Spamhaus ZEN, SORBS WEB, SORBS SPAM, BARRACUDA</t>
+  </si>
+  <si>
+    <t>dnsbl.justspam.org</t>
+  </si>
+  <si>
+    <t>Aalborg</t>
+  </si>
+  <si>
+    <t>Danmarks Tekniske Universitet, Net til Kennedy-kollegiet</t>
+  </si>
+  <si>
+    <t>Forskningsnettet - danish network for research and education</t>
+  </si>
+  <si>
+    <t>TOR exit nodes, the most reported ones according to abuseIPDB, reported in several category but we can't distinguis between the owner and the malicious actor.</t>
+  </si>
+  <si>
+    <t>AS5624</t>
+  </si>
+  <si>
+    <t>123: NTP, 9001: https , 9030: tor http</t>
+  </si>
+  <si>
+    <t>22: ssh dropbear, 8082: http</t>
+  </si>
+  <si>
+    <t>443: https, 500: IKE</t>
+  </si>
+  <si>
+    <t>161: snmp</t>
+  </si>
+  <si>
+    <t>22: ssh, 80: http apache, 123: ntp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danmarks Tekniske Universitet, Aalborg Universitet, </t>
+  </si>
+  <si>
+    <t>Open HTTP proxy</t>
+  </si>
+  <si>
+    <t>Spam</t>
   </si>
 </sst>
 </file>
@@ -666,22 +687,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -690,12 +703,19 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,8 +938,8 @@
   </sheetPr>
   <dimension ref="A3:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -927,7 +947,7 @@
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="222" bestFit="1" customWidth="1"/>
@@ -945,42 +965,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1095,739 +1115,752 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="J9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="G14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11" t="s">
+      <c r="G15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="C20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>115</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="10"/>
+        <v>95</v>
+      </c>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="C29" s="18"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>149</v>
+        <v>118</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>124</v>
+      <c r="C33" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="14"/>
+        <v>131</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="14"/>
+      <c r="C46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB24F8-3E2A-0C45-9EFE-58436B759833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D870FE2-56B0-7F4A-8EE0-EA4D815DEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="182">
   <si>
     <t>IP address</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Used websites, tools</t>
-  </si>
-  <si>
-    <t>virustotal, abuseipdb, greynoise</t>
   </si>
   <si>
     <t>Please upload your findings to this table. There is an example row (yellow background). Use different background colour please.</t>
@@ -269,9 +266,6 @@
     <t xml:space="preserve">ssh bruteforce, ssh worm </t>
   </si>
   <si>
-    <t xml:space="preserve">ssh, </t>
-  </si>
-  <si>
     <t xml:space="preserve">22, SSH-2.0-dropbear, </t>
   </si>
   <si>
@@ -395,9 +389,6 @@
     <t>BARRACUDA</t>
   </si>
   <si>
-    <t>9030, TOR http, 2200: SSH</t>
-  </si>
-  <si>
     <t xml:space="preserve">16030 http, </t>
   </si>
   <si>
@@ -461,9 +452,6 @@
     <t>192.38.0.0/17</t>
   </si>
   <si>
-    <t xml:space="preserve">TOR, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Copenhagen, Aalborg, </t>
   </si>
   <si>
@@ -533,10 +521,52 @@
     <t xml:space="preserve">Danmarks Tekniske Universitet, Aalborg Universitet, </t>
   </si>
   <si>
-    <t>Open HTTP proxy</t>
-  </si>
-  <si>
     <t>Spam</t>
+  </si>
+  <si>
+    <t>port scan, mirai, zmap client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spam, </t>
+  </si>
+  <si>
+    <t>TOR, spam</t>
+  </si>
+  <si>
+    <t>ssh bruteforce, spam</t>
+  </si>
+  <si>
+    <t>spam, hacking</t>
+  </si>
+  <si>
+    <t>Open HTTP proxy ???</t>
+  </si>
+  <si>
+    <t>virustotal: -1, abuseipdb: 0%</t>
+  </si>
+  <si>
+    <t>9001: TLS, 9030: TOR http, 2200: SSH</t>
+  </si>
+  <si>
+    <t>HTTP response 200</t>
+  </si>
+  <si>
+    <t>HTTP response 200: ZyWALL USG 20 W login page</t>
+  </si>
+  <si>
+    <t>HTTP response 404</t>
+  </si>
+  <si>
+    <t>HTTP response 200: Tor node</t>
+  </si>
+  <si>
+    <t>HTTP response 200: Tor exit node</t>
+  </si>
+  <si>
+    <t>Debian Ubintu, Apache, PHP</t>
+  </si>
+  <si>
+    <t>virustotal, abuseipdb, greynoise, RIPE DB, FOFA, mxtools, shodan, alienvaultOTX, dan.me.dk</t>
   </si>
 </sst>
 </file>
@@ -687,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -709,6 +739,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -938,8 +969,8 @@
   </sheetPr>
   <dimension ref="A3:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -954,53 +985,53 @@
     <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="208.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="139.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="74.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="49" customWidth="1"/>
     <col min="17" max="17" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="75.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1111,63 +1142,75 @@
         <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="I7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
@@ -1176,687 +1219,782 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
+        <v>164</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="M9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="M15" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="I17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L18" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="M18" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>162</v>
+        <v>91</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="C29" s="19"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D870FE2-56B0-7F4A-8EE0-EA4D815DEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5999BC99-8829-D94C-8508-33F22A9ECDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>IP address</t>
   </si>
@@ -281,9 +281,6 @@
     <t>1 file: trojan.crack/utorrent</t>
   </si>
   <si>
-    <t xml:space="preserve">ssh bruteforce, ssh worm, IoT bruteforce, BOT, </t>
-  </si>
-  <si>
     <t>Data Center/Web Hosting/Transit</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>185.129.61.6</t>
   </si>
   <si>
-    <t>Data Center/Web Hosting/Transit, TOR</t>
-  </si>
-  <si>
     <t>SWINOG, Spamhaus ZEN, SPAMCOP, s5h.net, RATS Spam, DAN TOREXIT, DAN TOR, Abusix Mail Intelligence Blacklist</t>
   </si>
   <si>
@@ -563,10 +557,43 @@
     <t>HTTP response 200: Tor exit node</t>
   </si>
   <si>
-    <t>Debian Ubintu, Apache, PHP</t>
-  </si>
-  <si>
     <t>virustotal, abuseipdb, greynoise, RIPE DB, FOFA, mxtools, shodan, alienvaultOTX, dan.me.dk</t>
+  </si>
+  <si>
+    <t>ssh bruteforce, ssh worm, IoT bruteforce, BOT, portscan, smtp</t>
+  </si>
+  <si>
+    <t>Debian Ubuntu, Apache, PHP</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Thomson Inc. Router?, snmpv3</t>
+  </si>
+  <si>
+    <t>Zyxel ZyWALL USG 20W</t>
+  </si>
+  <si>
+    <t>According to shodan has some CVEs.</t>
+  </si>
+  <si>
+    <t>According to shodan has a lot of CVEs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linux, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">debian linux, </t>
+  </si>
+  <si>
+    <t>ubuntu linux</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Yes, TOR.</t>
   </si>
 </sst>
 </file>
@@ -576,7 +603,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -613,31 +640,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF20242C"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF212529"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -650,17 +657,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Questrial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -713,44 +709,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -969,8 +950,8 @@
   </sheetPr>
   <dimension ref="A3:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -983,7 +964,7 @@
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="222" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="208.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" customWidth="1"/>
     <col min="10" max="10" width="93" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="74.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="44.5" bestFit="1" customWidth="1"/>
@@ -992,46 +973,46 @@
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="49" customWidth="1"/>
     <col min="17" max="17" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1142,876 +1123,1184 @@
         <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>181</v>
+      <c r="L7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="I8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>181</v>
+      <c r="N8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="6">
+        <v>45262</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="6">
+        <v>43381</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="6">
+        <v>44769</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" s="6">
+        <v>44641</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" s="6">
+        <v>44444</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="G14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O14" s="6">
+        <v>43007</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="6">
+        <v>43009</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O16" s="6">
+        <v>44140</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="J18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" s="6">
+        <v>43851</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="J19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" s="6">
+        <v>43897</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>159</v>
+      <c r="B34" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="10"/>
+      <c r="C46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:P4"/>
     <mergeCell ref="C22:C29"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://apps.db.ripe.net/db-web-ui/lookup?source=ripe&amp;key=192.38.0.0%2F17AS1835&amp;type=route" xr:uid="{71F26DE2-A142-3646-A73E-E5502480F7EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D32" numberStoredAsText="1"/>
+    <ignoredError sqref="D32 A18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5999BC99-8829-D94C-8508-33F22A9ECDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392E6F99-E074-3A4E-94FB-21698DAF1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="196">
   <si>
     <t>IP address</t>
   </si>
@@ -594,6 +594,21 @@
   </si>
   <si>
     <t>Yes, TOR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second round of analysing IPs. </t>
+  </si>
+  <si>
+    <t>185.129.61.129</t>
+  </si>
+  <si>
+    <t>185.129.61.3</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>Zencurity</t>
   </si>
 </sst>
 </file>
@@ -712,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -729,7 +744,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,15 +962,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:R46"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
@@ -976,820 +990,292 @@
     <col min="18" max="18" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O17" s="3">
         <v>44927</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="6">
-        <v>45262</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="6">
-        <v>43381</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="O11" s="6">
-        <v>44769</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="O12" s="6">
-        <v>44641</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="O13" s="6">
-        <v>44444</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="O14" s="6">
-        <v>43007</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="O15" s="6">
-        <v>43009</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="O16" s="6">
-        <v>44140</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>84</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>83</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>83</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="N18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="6">
-        <v>43851</v>
-      </c>
       <c r="P18" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>83</v>
@@ -1800,52 +1286,52 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>84</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>83</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="6">
+        <v>45262</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="O19" s="6">
-        <v>43897</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>83</v>
@@ -1856,451 +1342,1067 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="N20" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="6">
+        <v>43381</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="Q20" s="6" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" s="6">
+        <v>44769</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" s="6">
+        <v>44641</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" s="6">
+        <v>44444</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" s="6">
+        <v>43007</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" s="6">
+        <v>43009</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" s="6">
+        <v>44140</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O29" s="6">
+        <v>43851</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O30" s="6">
+        <v>43897</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B46" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B47" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B48" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C49" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B50" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C50" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C51" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B52" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C52" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="7"/>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:P4"/>
-    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="A14:P15"/>
+    <mergeCell ref="C33:C40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="https://apps.db.ripe.net/db-web-ui/lookup?source=ripe&amp;key=192.38.0.0%2F17AS1835&amp;type=route" xr:uid="{71F26DE2-A142-3646-A73E-E5502480F7EC}"/>
+    <hyperlink ref="B31" r:id="rId1" display="https://apps.db.ripe.net/db-web-ui/lookup?source=ripe&amp;key=192.38.0.0%2F17AS1835&amp;type=route" xr:uid="{71F26DE2-A142-3646-A73E-E5502480F7EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D32 A18" numberStoredAsText="1"/>
+    <ignoredError sqref="D43 A29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392E6F99-E074-3A4E-94FB-21698DAF1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBFA921-FF87-E047-8B7B-8C0C75E978A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="259">
   <si>
     <t>IP address</t>
   </si>
@@ -609,6 +609,239 @@
   </si>
   <si>
     <t>Zencurity</t>
+  </si>
+  <si>
+    <t>Owner of zencurity</t>
+  </si>
+  <si>
+    <t>Henrik (kramse) Kramselund</t>
+  </si>
+  <si>
+    <t>Related websites:</t>
+  </si>
+  <si>
+    <t>https://www.kramse.org/</t>
+  </si>
+  <si>
+    <t>https://github.com/kramse?tab=repositories</t>
+  </si>
+  <si>
+    <t>https://mastodon.social/@kramse@social.kramse.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kramse/</t>
+  </si>
+  <si>
+    <t>https://bornhack.dk/bornhack-2022/program/speakers/henrik-kramselund/</t>
+  </si>
+  <si>
+    <t>https://datacvr.virk.dk/enhed/virksomhed/32941184?fritekst=32941184&amp;sideIndex=0&amp;size=10</t>
+  </si>
+  <si>
+    <t>https://zencurity.dk/</t>
+  </si>
+  <si>
+    <t>https://dotsrc.org/news/2021-10-17_tor_exits/</t>
+  </si>
+  <si>
+    <t>https://dotsrc.org/</t>
+  </si>
+  <si>
+    <t>Tor exit node name: d2d4</t>
+  </si>
+  <si>
+    <t>Domains on IP</t>
+  </si>
+  <si>
+    <r>
+      <t>36 total.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>ExploreWhois</t>
+    </r>
+  </si>
+  <si>
+    <t>zencurity.com</t>
+  </si>
+  <si>
+    <t>kramse.com</t>
+  </si>
+  <si>
+    <t>security6.net</t>
+  </si>
+  <si>
+    <t>penguinping.org</t>
+  </si>
+  <si>
+    <t>vikingscan.org</t>
+  </si>
+  <si>
+    <t>penguinping.net</t>
+  </si>
+  <si>
+    <t>penguinping.com</t>
+  </si>
+  <si>
+    <t>zencurity.org</t>
+  </si>
+  <si>
+    <t>kramse.surf</t>
+  </si>
+  <si>
+    <t>kramse.org</t>
+  </si>
+  <si>
+    <t>zencurity.net</t>
+  </si>
+  <si>
+    <t>kramse.net</t>
+  </si>
+  <si>
+    <t>kramselund.com</t>
+  </si>
+  <si>
+    <t>mitm.dk</t>
+  </si>
+  <si>
+    <t>test-ipv6.dk</t>
+  </si>
+  <si>
+    <t>carsleeping.dk</t>
+  </si>
+  <si>
+    <t>portscan.dk</t>
+  </si>
+  <si>
+    <t>ipv6-taskforce.dk</t>
+  </si>
+  <si>
+    <t>inet6.dk</t>
+  </si>
+  <si>
+    <t>kramselund.dk</t>
+  </si>
+  <si>
+    <t>pentest.dk</t>
+  </si>
+  <si>
+    <t>isoc.dk</t>
+  </si>
+  <si>
+    <t>portscanning.dk</t>
+  </si>
+  <si>
+    <t>security6.dk</t>
+  </si>
+  <si>
+    <t>zencurity.dk</t>
+  </si>
+  <si>
+    <t>ipv6tf.dk</t>
+  </si>
+  <si>
+    <t>port-scan.dk</t>
+  </si>
+  <si>
+    <t>pentesting.dk</t>
+  </si>
+  <si>
+    <t>ipv4.dk</t>
+  </si>
+  <si>
+    <t>zencurity.nl</t>
+  </si>
+  <si>
+    <t>kramse.dk</t>
+  </si>
+  <si>
+    <t>tcpip.dk</t>
+  </si>
+  <si>
+    <t>nwwc.dk</t>
+  </si>
+  <si>
+    <t>kramse.nl</t>
+  </si>
+  <si>
+    <t>torservers.dk</t>
+  </si>
+  <si>
+    <t>zencurity.eu</t>
+  </si>
+  <si>
+    <t>185.129.63.1–254</t>
+  </si>
+  <si>
+    <t>Domains on Subnet</t>
+  </si>
+  <si>
+    <r>
+      <t>45 total.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Purchase List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Explore</t>
+    </r>
+  </si>
+  <si>
+    <t>totalstat.dk</t>
+  </si>
+  <si>
+    <t>demokra102030.dk</t>
+  </si>
+  <si>
+    <t>xn--bs-lka.se</t>
+  </si>
+  <si>
+    <t>glemmig.dk</t>
+  </si>
+  <si>
+    <r>
+      <t>Domains on </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nameserver</t>
+    </r>
+  </si>
+  <si>
+    <t>15 total.</t>
+  </si>
+  <si>
+    <t>kramshoej.com</t>
+  </si>
+  <si>
+    <t>kramshoej.net</t>
+  </si>
+  <si>
+    <t>So basically Zencuity is a one man stand company, maintaining an ASN. The malicious IPs are part of that ASN, and right now seems like to assigned to a dotsrc project, which is providing tor nodes on these addresses. Other than that the other Zencurity IP addresses are also tor nodes, however seems like not part of the dotsrc poject. The owner of this company is a cyber security specialist, with github repo, teaching at a Danish IT school as well.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +851,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -669,6 +902,45 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -724,10 +996,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -744,8 +1017,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -962,10 +1240,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -973,7 +1251,7 @@
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="222" bestFit="1" customWidth="1"/>
@@ -988,97 +1266,180 @@
     <col min="16" max="16" width="49" customWidth="1"/>
     <col min="17" max="17" width="65.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V11" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V12" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V13" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1097,8 +1458,11 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V14" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1115,8 +1479,11 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="V15" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +1538,11 @@
       <c r="R16" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V16" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1227,8 +1597,11 @@
       <c r="R17" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V17" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -1283,8 +1656,11 @@
       <c r="R18" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V18" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -1339,8 +1715,11 @@
       <c r="R19" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V19" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -1395,8 +1774,11 @@
       <c r="R20" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V20" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1451,8 +1833,11 @@
       <c r="R21" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V21" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -1507,8 +1892,11 @@
       <c r="R22" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V22" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -1563,8 +1951,11 @@
       <c r="R23" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V23" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>49</v>
       </c>
@@ -1619,8 +2010,11 @@
       <c r="R24" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V24" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
@@ -1675,8 +2069,11 @@
       <c r="R25" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V25" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
@@ -1731,8 +2128,11 @@
       <c r="R26" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V26" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>133</v>
       </c>
@@ -1787,8 +2187,11 @@
       <c r="R27" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V27" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>134</v>
       </c>
@@ -1843,8 +2246,11 @@
       <c r="R28" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V28" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>137</v>
       </c>
@@ -1899,8 +2305,11 @@
       <c r="R29" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V29" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -1955,8 +2364,11 @@
       <c r="R30" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V30" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>139</v>
       </c>
@@ -2011,8 +2423,11 @@
       <c r="R31" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V31" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2031,8 +2446,11 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V32" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>90</v>
@@ -2055,8 +2473,11 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V33" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>91</v>
@@ -2077,8 +2498,11 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V34" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>92</v>
@@ -2099,8 +2523,11 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V35" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>93</v>
@@ -2121,8 +2548,11 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V36" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>94</v>
@@ -2143,8 +2573,11 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V37" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>95</v>
@@ -2165,8 +2598,11 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V38" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>96</v>
@@ -2187,8 +2623,11 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V39" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>97</v>
@@ -2210,7 +2649,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2230,7 +2669,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
@@ -2243,8 +2682,11 @@
       <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V42" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>136</v>
       </c>
@@ -2257,8 +2699,11 @@
       <c r="D43" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V43" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
@@ -2272,8 +2717,11 @@
         <v>135</v>
       </c>
       <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V44" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
@@ -2287,8 +2735,11 @@
         <v>181</v>
       </c>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V45" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>111</v>
       </c>
@@ -2302,8 +2753,11 @@
         <v>181</v>
       </c>
       <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V46" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>113</v>
       </c>
@@ -2317,8 +2771,11 @@
         <v>181</v>
       </c>
       <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V47" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>129</v>
       </c>
@@ -2331,8 +2788,11 @@
       <c r="D48" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V48" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>130</v>
       </c>
@@ -2345,8 +2805,11 @@
       <c r="D49" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V49" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>131</v>
       </c>
@@ -2359,8 +2822,11 @@
       <c r="D50" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V50" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>112</v>
       </c>
@@ -2373,8 +2839,11 @@
       <c r="D51" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V51" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>132</v>
       </c>
@@ -2387,9 +2856,255 @@
       <c r="D52" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V52" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V53" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V54" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V55" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V56" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="7"/>
+      <c r="V57" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V58" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V59" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V60" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V61" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V62" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V63" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V64" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V65" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V66" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V67" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V68" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V69" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V70" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V71" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V72" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V73" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V74" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V75" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V76" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V77" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V78" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V79" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V80" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V81" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V82" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V83" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V84" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V87" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V88" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V89" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V90" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V91" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V92" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V93" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V94" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V95" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V96" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V97" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V98" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V99" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V100" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V101" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V102" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V103" s="14" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2399,6 +3114,98 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B31" r:id="rId1" display="https://apps.db.ripe.net/db-web-ui/lookup?source=ripe&amp;key=192.38.0.0%2F17AS1835&amp;type=route" xr:uid="{71F26DE2-A142-3646-A73E-E5502480F7EC}"/>
+    <hyperlink ref="V4" r:id="rId2" display="https://www.domainiq.com/domain?zencurity.com" xr:uid="{AA02D8C4-B424-4E4C-9C60-4CB4EB72D305}"/>
+    <hyperlink ref="V5" r:id="rId3" display="https://www.domainiq.com/domain?kramse.com" xr:uid="{379B46B6-63DC-0C49-8C35-3454549A7A35}"/>
+    <hyperlink ref="V6" r:id="rId4" display="https://www.domainiq.com/domain?security6.net" xr:uid="{25475561-F844-B74B-A79C-1035F7867F2F}"/>
+    <hyperlink ref="V7" r:id="rId5" display="https://www.domainiq.com/domain?penguinping.org" xr:uid="{23A93CED-8998-0745-9E7E-01A49F6F622A}"/>
+    <hyperlink ref="V8" r:id="rId6" display="https://www.domainiq.com/domain?vikingscan.org" xr:uid="{9F65828F-038B-5D4F-8CE6-E9C6B915F8A7}"/>
+    <hyperlink ref="V9" r:id="rId7" display="https://www.domainiq.com/domain?penguinping.net" xr:uid="{4E71C0D5-53F3-BD40-9840-AA53A2C8D134}"/>
+    <hyperlink ref="V10" r:id="rId8" display="https://www.domainiq.com/domain?penguinping.com" xr:uid="{3B0E8381-0FC7-894F-832E-D0726BF1D8CB}"/>
+    <hyperlink ref="V11" r:id="rId9" display="https://www.domainiq.com/domain?zencurity.org" xr:uid="{05C0B67F-1930-654D-AA57-EEBFF637B654}"/>
+    <hyperlink ref="V12" r:id="rId10" display="https://www.domainiq.com/domain?kramse.surf" xr:uid="{68D5DAA7-2C4E-0842-A07E-DC091E6EE033}"/>
+    <hyperlink ref="V13" r:id="rId11" display="https://www.domainiq.com/domain?kramse.org" xr:uid="{95D99F25-0553-CB43-94F1-BCD1B9AD8B54}"/>
+    <hyperlink ref="V14" r:id="rId12" display="https://www.domainiq.com/domain?zencurity.net" xr:uid="{7A23EBD7-F8B7-374D-A516-50582AD3DCFD}"/>
+    <hyperlink ref="V15" r:id="rId13" display="https://www.domainiq.com/domain?kramse.net" xr:uid="{28668995-1E82-0E4C-8617-06AB1D406D05}"/>
+    <hyperlink ref="V16" r:id="rId14" display="https://www.domainiq.com/domain?kramselund.com" xr:uid="{557540DC-6829-1542-99B1-61FB6A033ABF}"/>
+    <hyperlink ref="V17" r:id="rId15" display="https://www.domainiq.com/domain?mitm.dk" xr:uid="{456ED463-DB3B-0D45-A67B-2AB3E33D65F0}"/>
+    <hyperlink ref="V18" r:id="rId16" display="https://www.domainiq.com/domain?test-ipv6.dk" xr:uid="{61FCD74D-31D8-C141-8242-03A9FCA87F8F}"/>
+    <hyperlink ref="V19" r:id="rId17" display="https://www.domainiq.com/domain?carsleeping.dk" xr:uid="{7EDEE219-D42C-DE4D-8E31-4AB2853D7A9A}"/>
+    <hyperlink ref="V20" r:id="rId18" display="https://www.domainiq.com/domain?portscan.dk" xr:uid="{70FBAFE4-DC26-8C45-A1F3-20A2F12DCFFF}"/>
+    <hyperlink ref="V21" r:id="rId19" display="https://www.domainiq.com/domain?ipv6-taskforce.dk" xr:uid="{8C254FF2-C277-DF4E-B7C9-22D46E4C3790}"/>
+    <hyperlink ref="V22" r:id="rId20" display="https://www.domainiq.com/domain?inet6.dk" xr:uid="{740D7032-E1A4-4B47-84F9-0863F15B2E5B}"/>
+    <hyperlink ref="V23" r:id="rId21" display="https://www.domainiq.com/domain?kramselund.dk" xr:uid="{90F15DE9-F384-4D4C-960D-685F77B10B74}"/>
+    <hyperlink ref="V24" r:id="rId22" display="https://www.domainiq.com/domain?pentest.dk" xr:uid="{949666E9-4AF5-AF45-9112-E23E6CB77F79}"/>
+    <hyperlink ref="V25" r:id="rId23" display="https://www.domainiq.com/domain?isoc.dk" xr:uid="{D21346C1-9529-D349-B1F2-494D8EE7B843}"/>
+    <hyperlink ref="V26" r:id="rId24" display="https://www.domainiq.com/domain?portscanning.dk" xr:uid="{B906284B-B6BB-504A-9628-1676D5A47F45}"/>
+    <hyperlink ref="V27" r:id="rId25" display="https://www.domainiq.com/domain?security6.dk" xr:uid="{CA84781C-F15A-944F-A6C2-7F8BE5FD4DF2}"/>
+    <hyperlink ref="V28" r:id="rId26" display="https://www.domainiq.com/domain?zencurity.dk" xr:uid="{BA15CE83-DBEE-8944-BD0C-727175925CE6}"/>
+    <hyperlink ref="V29" r:id="rId27" display="https://www.domainiq.com/domain?ipv6tf.dk" xr:uid="{9D252C9E-F789-924A-A19C-633FEFB02C75}"/>
+    <hyperlink ref="V30" r:id="rId28" display="https://www.domainiq.com/domain?port-scan.dk" xr:uid="{694688FD-D882-834A-8A48-E172A0D8BBE5}"/>
+    <hyperlink ref="V31" r:id="rId29" display="https://www.domainiq.com/domain?pentesting.dk" xr:uid="{F7DEC965-C103-B341-A889-84D03B7AA1EC}"/>
+    <hyperlink ref="V32" r:id="rId30" display="https://www.domainiq.com/domain?ipv4.dk" xr:uid="{969F231B-A2FB-564E-AE80-6D1BEFD7FF22}"/>
+    <hyperlink ref="V33" r:id="rId31" display="https://www.domainiq.com/domain?zencurity.nl" xr:uid="{42070801-1FC1-3347-99D8-CCFF03D9235D}"/>
+    <hyperlink ref="V34" r:id="rId32" display="https://www.domainiq.com/domain?kramse.dk" xr:uid="{0CEA1C31-F7BA-7145-82AB-9292FDBE0699}"/>
+    <hyperlink ref="V35" r:id="rId33" display="https://www.domainiq.com/domain?tcpip.dk" xr:uid="{868A784F-C75B-624A-93A8-93DE65B98DFD}"/>
+    <hyperlink ref="V36" r:id="rId34" display="https://www.domainiq.com/domain?nwwc.dk" xr:uid="{94DA7454-4B2C-FB49-AA5A-EC310EC7647A}"/>
+    <hyperlink ref="V37" r:id="rId35" display="https://www.domainiq.com/domain?kramse.nl" xr:uid="{B4C5E89F-B79E-F74C-B38D-4475E0A8A14F}"/>
+    <hyperlink ref="V38" r:id="rId36" display="https://www.domainiq.com/domain?torservers.dk" xr:uid="{E3A87354-4C9C-8C43-9EDA-285E126F9FA2}"/>
+    <hyperlink ref="V39" r:id="rId37" display="https://www.domainiq.com/domain?zencurity.eu" xr:uid="{A30A7A1C-31AD-8B49-BB7D-8E39910D0BA0}"/>
+    <hyperlink ref="V45" r:id="rId38" display="https://www.domainiq.com/domain?zencurity.com" xr:uid="{D322C4D7-DFD0-E948-B940-D3F1B0094516}"/>
+    <hyperlink ref="V46" r:id="rId39" display="https://www.domainiq.com/domain?kramse.com" xr:uid="{BA07052C-C6D6-7042-B151-40AA827AE9DA}"/>
+    <hyperlink ref="V47" r:id="rId40" display="https://www.domainiq.com/domain?security6.net" xr:uid="{47E1401B-32EA-3B46-BA99-0B465B0C8E1E}"/>
+    <hyperlink ref="V48" r:id="rId41" display="https://www.domainiq.com/domain?penguinping.org" xr:uid="{566C2411-2D97-F64A-AC9F-3143C6509929}"/>
+    <hyperlink ref="V49" r:id="rId42" display="https://www.domainiq.com/domain?vikingscan.org" xr:uid="{9094EAC6-71D7-7644-AF42-9FF82398F294}"/>
+    <hyperlink ref="V50" r:id="rId43" display="https://www.domainiq.com/domain?penguinping.net" xr:uid="{25DC0CC8-48FF-0E4D-AC43-7152A502A9CE}"/>
+    <hyperlink ref="V51" r:id="rId44" display="https://www.domainiq.com/domain?penguinping.com" xr:uid="{67EC4BED-41AC-094D-A674-8D2DC11C78A8}"/>
+    <hyperlink ref="V52" r:id="rId45" display="https://www.domainiq.com/domain?zencurity.org" xr:uid="{A8731DBE-538D-4641-83A4-21D989A08B20}"/>
+    <hyperlink ref="V53" r:id="rId46" display="https://www.domainiq.com/domain?kramse.surf" xr:uid="{22461238-5C99-C14E-AA5C-A907D8F128AD}"/>
+    <hyperlink ref="V54" r:id="rId47" display="https://www.domainiq.com/domain?kramse.org" xr:uid="{BB5CFAE2-5996-B24D-9BE3-30F5EB3C34A0}"/>
+    <hyperlink ref="V55" r:id="rId48" display="https://www.domainiq.com/domain?zencurity.net" xr:uid="{E069D35A-E89D-6742-A577-4D3447DD23ED}"/>
+    <hyperlink ref="V56" r:id="rId49" display="https://www.domainiq.com/domain?kramse.net" xr:uid="{680B234C-0549-8543-9D1C-191588728AB5}"/>
+    <hyperlink ref="V57" r:id="rId50" display="https://www.domainiq.com/domain?kramselund.com" xr:uid="{311BBD0B-2449-3543-AC84-0A56A47FD4A2}"/>
+    <hyperlink ref="V58" r:id="rId51" display="https://www.domainiq.com/domain?mitm.dk" xr:uid="{7E8419A8-1E6B-2B44-9C04-BAF86178CAEE}"/>
+    <hyperlink ref="V59" r:id="rId52" display="https://www.domainiq.com/domain?test-ipv6.dk" xr:uid="{A22A09EE-5AF9-2247-842B-8DDF34980648}"/>
+    <hyperlink ref="V60" r:id="rId53" display="https://www.domainiq.com/domain?carsleeping.dk" xr:uid="{0E6F0CDD-3446-AD4F-BE0D-8B415DACECFE}"/>
+    <hyperlink ref="V61" r:id="rId54" display="https://www.domainiq.com/domain?portscan.dk" xr:uid="{B4FDD98C-857F-5B4D-B02F-0EE80D180023}"/>
+    <hyperlink ref="V62" r:id="rId55" display="https://www.domainiq.com/domain?ipv6-taskforce.dk" xr:uid="{49E04370-9034-A840-A5D2-44C898F9F7D0}"/>
+    <hyperlink ref="V63" r:id="rId56" display="https://www.domainiq.com/domain?inet6.dk" xr:uid="{F3ABF48C-9938-1F4F-8E2A-B8EAAF8ADE61}"/>
+    <hyperlink ref="V64" r:id="rId57" display="https://www.domainiq.com/domain?kramselund.dk" xr:uid="{FA6C38B1-CFFB-024A-A856-62C3FD78AD88}"/>
+    <hyperlink ref="V65" r:id="rId58" display="https://www.domainiq.com/domain?pentest.dk" xr:uid="{81CDDC9D-8903-CB43-8B5E-3679AFAE115A}"/>
+    <hyperlink ref="V66" r:id="rId59" display="https://www.domainiq.com/domain?isoc.dk" xr:uid="{D3190FEA-6597-BC44-B13D-CE1D0B34607C}"/>
+    <hyperlink ref="V67" r:id="rId60" display="https://www.domainiq.com/domain?portscanning.dk" xr:uid="{3DC39359-46D5-9F45-80F8-5EB9C8E323C9}"/>
+    <hyperlink ref="V68" r:id="rId61" display="https://www.domainiq.com/domain?security6.dk" xr:uid="{BEA9A6D5-E318-D441-9F2B-DF67C402E05B}"/>
+    <hyperlink ref="V69" r:id="rId62" display="https://www.domainiq.com/domain?zencurity.dk" xr:uid="{32C48A8C-4E71-FC4F-ABFC-ABA9B986FA15}"/>
+    <hyperlink ref="V70" r:id="rId63" display="https://www.domainiq.com/domain?ipv6tf.dk" xr:uid="{340553C6-107E-D641-972D-92D6A2265F2C}"/>
+    <hyperlink ref="V71" r:id="rId64" display="https://www.domainiq.com/domain?port-scan.dk" xr:uid="{87AD993F-92D3-1A47-AF19-0CDF461014A2}"/>
+    <hyperlink ref="V72" r:id="rId65" display="https://www.domainiq.com/domain?pentesting.dk" xr:uid="{067FEE65-FF2D-3A48-8DBD-7C6B7682C33A}"/>
+    <hyperlink ref="V73" r:id="rId66" display="https://www.domainiq.com/domain?ipv4.dk" xr:uid="{9C0FB99A-64F0-C94D-B07E-0C556659D6B5}"/>
+    <hyperlink ref="V74" r:id="rId67" display="https://www.domainiq.com/domain?zencurity.nl" xr:uid="{B9C5BD3F-FF99-514C-AAF5-E6FB10702367}"/>
+    <hyperlink ref="V75" r:id="rId68" display="https://www.domainiq.com/domain?kramse.dk" xr:uid="{A3A65E1D-26EF-2B4D-9B28-B1648EBEE63A}"/>
+    <hyperlink ref="V76" r:id="rId69" display="https://www.domainiq.com/domain?tcpip.dk" xr:uid="{A36162A7-05B2-C04F-A992-807941B6347D}"/>
+    <hyperlink ref="V77" r:id="rId70" display="https://www.domainiq.com/domain?nwwc.dk" xr:uid="{8B552BF1-BB07-B541-A5A8-231165A8A772}"/>
+    <hyperlink ref="V78" r:id="rId71" display="https://www.domainiq.com/domain?kramse.nl" xr:uid="{3EA2727B-ADCF-864E-B493-7D5EAC498A24}"/>
+    <hyperlink ref="V79" r:id="rId72" display="https://www.domainiq.com/domain?torservers.dk" xr:uid="{24286BA2-56BF-214B-85F6-1977FA0D25FF}"/>
+    <hyperlink ref="V80" r:id="rId73" display="https://www.domainiq.com/domain?zencurity.eu" xr:uid="{1F3FBCBE-2504-7941-A876-66FD16A5E880}"/>
+    <hyperlink ref="V81" r:id="rId74" display="https://www.domainiq.com/domain?totalstat.dk" xr:uid="{9D7BBFE4-54A2-F54C-8403-A240DBA71AD0}"/>
+    <hyperlink ref="V82" r:id="rId75" display="https://www.domainiq.com/domain?demokra102030.dk" xr:uid="{DEEC5493-007A-8F45-A46A-DC9E8417958A}"/>
+    <hyperlink ref="V83" r:id="rId76" display="https://www.domainiq.com/domain?xn--bs-lka.se" xr:uid="{E3DC030D-C2F0-C44F-B72D-49240B938D5F}"/>
+    <hyperlink ref="V84" r:id="rId77" display="https://www.domainiq.com/domain?glemmig.dk" xr:uid="{A2DA848E-F4B8-D44D-BA26-4085526B5DDB}"/>
+    <hyperlink ref="V87" r:id="rId78" display="https://www.domainiq.com/domain?Zencurity.dk" xr:uid="{B22A8508-32AF-654C-A227-720FB72D720E}"/>
+    <hyperlink ref="V89" r:id="rId79" display="https://www.domainiq.com/domain?kramse.com" xr:uid="{F39D1078-4C17-F240-99C8-B35E2771107B}"/>
+    <hyperlink ref="V90" r:id="rId80" display="https://www.domainiq.com/domain?kramselund.com" xr:uid="{62F603F4-EE6C-9C42-BB78-3A4B41DBA27F}"/>
+    <hyperlink ref="V91" r:id="rId81" display="https://www.domainiq.com/domain?kramshoej.com" xr:uid="{9A82C50C-3F59-9F44-8C6E-6A9DC98414E7}"/>
+    <hyperlink ref="V92" r:id="rId82" display="https://www.domainiq.com/domain?penguinping.com" xr:uid="{7220A5E3-AC71-3147-A315-89EEEA268126}"/>
+    <hyperlink ref="V93" r:id="rId83" display="https://www.domainiq.com/domain?zencurity.com" xr:uid="{5169DE8C-E9B9-7B43-8620-B54BE71021C9}"/>
+    <hyperlink ref="V94" r:id="rId84" display="https://www.domainiq.com/domain?kramse.net" xr:uid="{7695EF65-4CE5-E645-B9F5-21299C340FEE}"/>
+    <hyperlink ref="V95" r:id="rId85" display="https://www.domainiq.com/domain?kramshoej.net" xr:uid="{B0E57B6C-F61D-454B-8092-12096E60AEA2}"/>
+    <hyperlink ref="V96" r:id="rId86" display="https://www.domainiq.com/domain?penguinping.net" xr:uid="{32AC389E-937A-3349-B90C-1A049F8026C6}"/>
+    <hyperlink ref="V97" r:id="rId87" display="https://www.domainiq.com/domain?security6.net" xr:uid="{7A0724F2-9A83-4A46-BE43-765FBC50298E}"/>
+    <hyperlink ref="V98" r:id="rId88" display="https://www.domainiq.com/domain?zencurity.net" xr:uid="{ED2AF7DE-2A04-B14E-B90E-D64B81CB2F55}"/>
+    <hyperlink ref="V99" r:id="rId89" display="https://www.domainiq.com/domain?kramse.org" xr:uid="{9ACE7A80-79D5-484F-997C-0D87E12F3077}"/>
+    <hyperlink ref="V100" r:id="rId90" display="https://www.domainiq.com/domain?penguinping.org" xr:uid="{076BCD7B-6598-2345-BF9A-A053CFAF71AB}"/>
+    <hyperlink ref="V101" r:id="rId91" display="https://www.domainiq.com/domain?vikingscan.org" xr:uid="{B52946EC-6B5B-A549-9C45-CB9D09E702DF}"/>
+    <hyperlink ref="V102" r:id="rId92" display="https://www.domainiq.com/domain?zencurity.org" xr:uid="{D2047129-E722-534B-8409-5DF1C2EF98A1}"/>
+    <hyperlink ref="V103" r:id="rId93" display="https://www.domainiq.com/domain?kramse.surf" xr:uid="{061238B5-DD8A-204F-9229-167DECAF4531}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBFA921-FF87-E047-8B7B-8C0C75E978A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980743A0-1973-0B46-B736-7500EE4D15E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
   <si>
     <t>IP address</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>So basically Zencuity is a one man stand company, maintaining an ASN. The malicious IPs are part of that ASN, and right now seems like to assigned to a dotsrc project, which is providing tor nodes on these addresses. Other than that the other Zencurity IP addresses are also tor nodes, however seems like not part of the dotsrc poject. The owner of this company is a cyber security specialist, with github repo, teaching at a Danish IT school as well.</t>
+  </si>
+  <si>
+    <t>The most reported Tor IP addresses belong to an organization called Zencurity Aps, which is a one employee company. The owner (and the only employee as well) is a cybersecurity porfessional, who is teaching cyber security at KEA education center. Through this company he is lending IP addresses to dotsrc, which is a smaller research company wit a Tor project. The project is sponsored by Aalborg University as well. The Zencurity Aps has it's own IP addresses for Tor projects as well.</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1012,15 +1015,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1242,8 +1251,8 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1269,7 +1278,7 @@
     <col min="22" max="22" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="56" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>191</v>
       </c>
@@ -1282,7 +1291,7 @@
       <c r="D1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1299,7 +1308,7 @@
       <c r="D2" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1313,7 +1322,10 @@
       <c r="D3" t="s">
         <v>200</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="E3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1330,7 +1342,8 @@
       <c r="D4" t="s">
         <v>201</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="E4" s="17"/>
+      <c r="V4" s="11" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1341,10 +1354,11 @@
       <c r="B5" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="E5" s="17"/>
+      <c r="V5" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1358,7 +1372,8 @@
       <c r="D6" t="s">
         <v>203</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="E6" s="17"/>
+      <c r="V6" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1372,7 +1387,8 @@
       <c r="D7" t="s">
         <v>204</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="E7" s="17"/>
+      <c r="V7" s="11" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1386,7 +1402,7 @@
       <c r="D8" t="s">
         <v>205</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="11" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1400,7 +1416,7 @@
       <c r="D9" t="s">
         <v>206</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1411,10 +1427,10 @@
       <c r="B10" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1425,61 +1441,61 @@
       <c r="B11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="V14" s="14" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="V14" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="V15" s="14" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="V15" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1538,7 +1554,7 @@
       <c r="R16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1597,7 +1613,7 @@
       <c r="R17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="11" t="s">
         <v>224</v>
       </c>
     </row>
@@ -1656,7 +1672,7 @@
       <c r="R18" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1715,7 +1731,7 @@
       <c r="R19" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1774,7 +1790,7 @@
       <c r="R20" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="11" t="s">
         <v>227</v>
       </c>
     </row>
@@ -1833,7 +1849,7 @@
       <c r="R21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1892,7 +1908,7 @@
       <c r="R22" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -1951,7 +1967,7 @@
       <c r="R23" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2010,7 +2026,7 @@
       <c r="R24" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2069,7 +2085,7 @@
       <c r="R25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2128,7 +2144,7 @@
       <c r="R26" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="11" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2187,7 +2203,7 @@
       <c r="R27" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2246,7 +2262,7 @@
       <c r="R28" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" s="11" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2305,7 +2321,7 @@
       <c r="R29" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2364,7 +2380,7 @@
       <c r="R30" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="V30" s="11" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2423,7 +2439,7 @@
       <c r="R31" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="11" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2446,7 +2462,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="11" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2455,7 +2471,7 @@
       <c r="B33" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="15" t="s">
         <v>156</v>
       </c>
       <c r="D33" s="6"/>
@@ -2473,7 +2489,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="V33" s="14" t="s">
+      <c r="V33" s="11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2482,7 +2498,7 @@
       <c r="B34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2498,7 +2514,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="11" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2507,7 +2523,7 @@
       <c r="B35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2523,7 +2539,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2532,7 +2548,7 @@
       <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2548,7 +2564,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="V36" s="14" t="s">
+      <c r="V36" s="11" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2557,7 +2573,7 @@
       <c r="B37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2573,7 +2589,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="11" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2582,7 +2598,7 @@
       <c r="B38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2598,7 +2614,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="V38" s="14" t="s">
+      <c r="V38" s="11" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2607,7 +2623,7 @@
       <c r="B39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2623,7 +2639,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="V39" s="14" t="s">
+      <c r="V39" s="11" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2632,7 +2648,7 @@
       <c r="B40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -2682,7 +2698,7 @@
       <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V42" s="15" t="s">
+      <c r="V42" s="12" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2699,7 +2715,7 @@
       <c r="D43" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="V43" s="12" t="s">
+      <c r="V43" s="9" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2717,7 +2733,7 @@
         <v>135</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="V44" s="13" t="s">
+      <c r="V44" s="10" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2735,7 +2751,7 @@
         <v>181</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="V45" s="14" t="s">
+      <c r="V45" s="11" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2753,7 +2769,7 @@
         <v>181</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="V46" s="14" t="s">
+      <c r="V46" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2771,7 +2787,7 @@
         <v>181</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="V47" s="14" t="s">
+      <c r="V47" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2788,7 +2804,7 @@
       <c r="D48" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="V48" s="11" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2805,7 +2821,7 @@
       <c r="D49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="V49" s="14" t="s">
+      <c r="V49" s="11" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2822,7 +2838,7 @@
       <c r="D50" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2839,7 +2855,7 @@
       <c r="D51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="V51" s="14" t="s">
+      <c r="V51" s="11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2856,260 +2872,261 @@
       <c r="D52" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="V52" s="14" t="s">
+      <c r="V52" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V53" s="14" t="s">
+      <c r="V53" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V54" s="14" t="s">
+      <c r="V54" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V55" s="14" t="s">
+      <c r="V55" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V56" s="14" t="s">
+      <c r="V56" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="7"/>
-      <c r="V57" s="14" t="s">
+      <c r="V57" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V58" s="14" t="s">
+      <c r="V58" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V59" s="14" t="s">
+      <c r="V59" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V60" s="14" t="s">
+      <c r="V60" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V61" s="14" t="s">
+      <c r="V61" s="11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V62" s="14" t="s">
+      <c r="V62" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V63" s="14" t="s">
+      <c r="V63" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V64" s="14" t="s">
+      <c r="V64" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="65" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V65" s="14" t="s">
+      <c r="V65" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="66" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V66" s="14" t="s">
+      <c r="V66" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="67" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V67" s="14" t="s">
+      <c r="V67" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="68" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V68" s="14" t="s">
+      <c r="V68" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="69" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V69" s="14" t="s">
+      <c r="V69" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="70" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V70" s="14" t="s">
+      <c r="V70" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="71" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V71" s="14" t="s">
+      <c r="V71" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="72" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V72" s="14" t="s">
+      <c r="V72" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="73" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V73" s="14" t="s">
+      <c r="V73" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="74" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V74" s="14" t="s">
+      <c r="V74" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="75" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V75" s="14" t="s">
+      <c r="V75" s="11" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="76" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V76" s="14" t="s">
+      <c r="V76" s="11" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="77" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V77" s="14" t="s">
+      <c r="V77" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="78" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V78" s="14" t="s">
+      <c r="V78" s="11" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="79" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V79" s="14" t="s">
+      <c r="V79" s="11" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="80" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V80" s="14" t="s">
+      <c r="V80" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="81" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V81" s="14" t="s">
+      <c r="V81" s="11" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="82" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V82" s="14" t="s">
+      <c r="V82" s="11" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="83" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V83" s="14" t="s">
+      <c r="V83" s="11" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="84" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V84" s="14" t="s">
+      <c r="V84" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="87" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V87" s="14" t="s">
+      <c r="V87" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="88" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V88" s="13" t="s">
+      <c r="V88" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="89" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V89" s="14" t="s">
+      <c r="V89" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="90" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V90" s="14" t="s">
+      <c r="V90" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="91" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V91" s="14" t="s">
+      <c r="V91" s="11" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="92" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V92" s="14" t="s">
+      <c r="V92" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="93" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V93" s="14" t="s">
+      <c r="V93" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="94" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V94" s="14" t="s">
+      <c r="V94" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="95" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V95" s="14" t="s">
+      <c r="V95" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="96" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V96" s="14" t="s">
+      <c r="V96" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="97" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V97" s="14" t="s">
+      <c r="V97" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="98" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V98" s="14" t="s">
+      <c r="V98" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="99" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V99" s="14" t="s">
+      <c r="V99" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="100" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V100" s="14" t="s">
+      <c r="V100" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="101" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V101" s="14" t="s">
+      <c r="V101" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="102" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V102" s="14" t="s">
+      <c r="V102" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="103" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V103" s="14" t="s">
+      <c r="V103" s="11" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A14:P15"/>
     <mergeCell ref="C33:C40"/>
+    <mergeCell ref="E3:E7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3206,6 +3223,8 @@
     <hyperlink ref="V101" r:id="rId91" display="https://www.domainiq.com/domain?vikingscan.org" xr:uid="{B52946EC-6B5B-A549-9C45-CB9D09E702DF}"/>
     <hyperlink ref="V102" r:id="rId92" display="https://www.domainiq.com/domain?zencurity.org" xr:uid="{D2047129-E722-534B-8409-5DF1C2EF98A1}"/>
     <hyperlink ref="V103" r:id="rId93" display="https://www.domainiq.com/domain?kramse.surf" xr:uid="{061238B5-DD8A-204F-9229-167DECAF4531}"/>
+    <hyperlink ref="D10" r:id="rId94" xr:uid="{A8BE9B15-9F75-304F-A775-BED05E612CD2}"/>
+    <hyperlink ref="D5" r:id="rId95" xr:uid="{8E6C4CA4-BE0F-3443-93DE-07DBB6C785E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/manual/gs/gs_Investigation_results.xlsx
+++ b/manual/gs/gs_Investigation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Documents/CYBER - AAU CPH/LetMeOut/let-me-out/manual/gs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980743A0-1973-0B46-B736-7500EE4D15E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80569C-3CDD-7C4C-BC91-27B6A7AADE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,13 +1019,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1291,7 +1291,7 @@
       <c r="D1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1456,45 +1456,45 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="V14" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="V15" s="11" t="s">
         <v>222</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="B33" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>156</v>
       </c>
       <c r="D33" s="6"/>
@@ -2498,7 +2498,7 @@
       <c r="B34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2523,7 +2523,7 @@
       <c r="B35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2548,7 +2548,7 @@
       <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2573,7 +2573,7 @@
       <c r="B37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2598,7 +2598,7 @@
       <c r="B38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2623,7 +2623,7 @@
       <c r="B39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2648,7 +2648,7 @@
       <c r="B40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
